--- a/app/assets/TestDataSpreadsheet.xlsx
+++ b/app/assets/TestDataSpreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="23540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="23540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="teachers" sheetId="3" r:id="rId3"/>
     <sheet name="classrooms" sheetId="4" r:id="rId4"/>
     <sheet name="classroom_activities" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="254">
   <si>
     <t>studentId</t>
   </si>
@@ -782,6 +783,9 @@
   </si>
   <si>
     <t>classroom_id</t>
+  </si>
+  <si>
+    <t>student_id</t>
   </si>
 </sst>
 </file>
@@ -852,7 +856,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -902,6 +906,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -911,7 +921,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="29"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -945,6 +955,12 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1292,7 +1308,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4241,7 +4257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4345,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
@@ -4367,8 +4383,8 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f>"ActivitiesClassrooms.new({activity_id: "&amp;A2&amp;", classroom_id: "&amp;B2&amp;"}).save"</f>
-        <v>ActivitiesClassrooms.new({activity_id: 1, classroom_id: 1}).save</v>
+        <f>"ClassroomActivityPairing.new({activity_id: "&amp;A2&amp;", classroom_id: "&amp;B2&amp;"}).save"</f>
+        <v>ClassroomActivityPairing.new({activity_id: 1, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4380,8 +4396,8 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C49" si="0">"ActivitiesClassrooms.new({activity_id: "&amp;A3&amp;", classroom_id: "&amp;B3&amp;"}).save"</f>
-        <v>ActivitiesClassrooms.new({activity_id: 2, classroom_id: 1}).save</v>
+        <f t="shared" ref="C3:C49" si="0">"ClassroomActivityPairing.new({activity_id: "&amp;A3&amp;", classroom_id: "&amp;B3&amp;"}).save"</f>
+        <v>ClassroomActivityPairing.new({activity_id: 2, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4394,7 +4410,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 3, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 3, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4407,7 +4423,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 4, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 4, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4420,7 +4436,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 5, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 5, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4433,7 +4449,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 6, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 6, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4446,7 +4462,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 7, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 7, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4459,7 +4475,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 8, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 8, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4472,7 +4488,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 9, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 9, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4485,7 +4501,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 10, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 10, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4498,7 +4514,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 11, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 11, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4511,7 +4527,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 12, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 12, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4524,7 +4540,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 13, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 13, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4537,7 +4553,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 14, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 14, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4550,7 +4566,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 15, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 15, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4563,7 +4579,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 16, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 16, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4576,7 +4592,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 17, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 17, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4589,7 +4605,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 18, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 18, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4602,7 +4618,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 19, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 19, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4615,7 +4631,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 20, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 20, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4628,7 +4644,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 21, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 21, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4641,7 +4657,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 22, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 22, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4654,7 +4670,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 23, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 23, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4667,7 +4683,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 24, classroom_id: 1}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 24, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4679,7 +4695,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 1, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 1, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4692,7 +4708,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 2, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 2, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4705,7 +4721,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 3, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 3, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4718,7 +4734,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 4, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 4, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4731,7 +4747,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 5, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 5, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4744,7 +4760,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 6, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 6, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4757,7 +4773,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 7, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 7, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4770,7 +4786,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 8, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 8, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4783,7 +4799,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 9, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 9, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4796,7 +4812,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 10, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 10, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4809,7 +4825,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 11, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 11, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4822,7 +4838,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 12, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 12, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4835,7 +4851,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 13, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 13, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4848,7 +4864,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 14, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 14, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4861,7 +4877,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 15, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 15, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4874,7 +4890,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 16, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 16, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4887,7 +4903,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 17, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 17, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4900,7 +4916,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 18, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 18, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4913,7 +4929,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 19, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 19, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4926,7 +4942,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 20, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 20, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4939,7 +4955,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 21, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 21, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4952,7 +4968,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 22, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 22, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4965,7 +4981,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 23, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 23, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4978,7 +4994,2841 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>ActivitiesClassrooms.new({activity_id: 24, classroom_id: 2}).save</v>
+        <v>ClassroomActivityPairing.new({activity_id: 24, classroom_id: 2}).save</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <f ca="1">CEILING(RAND()*99,1)</f>
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <f ca="1">CEILING(RAND()*3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"ClassroomsStudentUsers.new({student_user_id: "&amp;C2&amp;", classroom_id: "&amp;D2&amp;"}).save"</f>
+        <v>ClassroomsStudentUsers.new({student_user_id: 82, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f t="shared" ref="A3:C66" ca="1" si="0">CEILING(RAND()*99,1)</f>
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:D66" ca="1" si="1">CEILING(RAND()*3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="2">"ClassroomsStudentUsers.new({student_user_id: "&amp;C3&amp;", classroom_id: "&amp;D3&amp;"}).save"</f>
+        <v>ClassroomsStudentUsers.new({student_user_id: 87, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 93, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 95, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 37, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 61, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>98</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 98, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 43, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 51, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 59, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 17, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 86, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 65, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 54, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 11, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 76, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 18, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 34, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 40, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 65, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 43, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 56, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 15, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 81, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 99, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 28, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>92</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 92, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 6, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 89, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>59</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 59, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 22, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 68, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>57</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 57, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>86</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 86, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 9, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 2, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 89, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 60, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>91</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 91, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 18, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 77, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 39, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>84</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 84, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>69</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 69, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 60, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 72, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 8, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>77</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 77, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 25, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 51, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>35</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 35, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>36</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 36, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 48, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <f t="shared" ref="A67:C130" ca="1" si="3">CEILING(RAND()*99,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:D130" ca="1" si="4">CEILING(RAND()*3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>85</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="5">"ClassroomsStudentUsers.new({student_user_id: "&amp;C67&amp;", classroom_id: "&amp;D67&amp;"}).save"</f>
+        <v>ClassroomsStudentUsers.new({student_user_id: 85, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 52, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>32</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>60</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 60, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>95</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 95, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>86</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 86, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 46, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 74, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>71</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 71, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>46</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 46, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 6, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 10, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>63</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 63, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 81, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>69</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 69, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 80, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>45</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 45, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 3, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>39</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 39, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>33</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 33, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 3, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>21</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>98</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 98, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 16, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>79</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 79, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 10, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>45</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 45, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>36</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 36, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>54</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 54, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>49</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>94</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 94, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>62</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 62, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>32</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>73</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 73, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>87</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 87, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>58</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 58, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>19</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 6, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>64</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 64, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>53</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 53, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>93</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 93, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>35</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 35, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 8, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>72</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 72, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 25, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>94</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 94, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 22, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>52</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 52, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>68</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 68, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>82</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 82, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>57</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 57, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>75</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 75, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>53</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 53, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 11, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>94</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 94, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>51</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 51, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>78</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 78, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>78</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 78, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>38</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 38, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>47</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 47, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>40</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 40, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>67</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="5"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 67, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <f t="shared" ref="A131:C141" ca="1" si="6">CEILING(RAND()*99,1)</f>
+        <v>49</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:D141" ca="1" si="7">CEILING(RAND()*3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>19</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E141" si="8">"ClassroomsStudentUsers.new({student_user_id: "&amp;C131&amp;", classroom_id: "&amp;D131&amp;"}).save"</f>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 15, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>17</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 17, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>21</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 3}).save</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>83</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 83, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>24</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 24, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>85</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 85, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>66</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>66</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>49</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>97</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="8"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 97, classroom_id: 1}).save</v>
       </c>
     </row>
   </sheetData>

--- a/app/assets/TestDataSpreadsheet.xlsx
+++ b/app/assets/TestDataSpreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="23540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -912,6 +912,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -921,7 +927,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="29"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -961,6 +967,12 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1308,7 +1320,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+      <selection activeCell="F2" sqref="F2:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1348,8 +1360,8 @@
         <v>203</v>
       </c>
       <c r="F2" t="str">
-        <f>"StudentUser.new({id:"&amp;A2&amp;" , username: """&amp;D2&amp;""", first_name: """&amp;B2&amp;""", last_name: """&amp;C2&amp;""", display_name: """&amp;B2&amp;" "&amp;C2&amp;""", email: """&amp;D2&amp;""", password: ""test""}).save"</f>
-        <v>StudentUser.new({id:1 , username: "test1@test.com", first_name: "Maria ", last_name: "Hill", display_name: "Maria  Hill", email: "test1@test.com", password: "test"}).save</v>
+        <f>"StudentUser.new({username: """&amp;D2&amp;""", first_name: """&amp;B2&amp;""", last_name: """&amp;C2&amp;""", display_name: """&amp;B2&amp;" "&amp;C2&amp;""", email: """&amp;D2&amp;""", password: ""test""}).save"</f>
+        <v>StudentUser.new({username: "test1@test.com", first_name: "Maria ", last_name: "Hill", display_name: "Maria  Hill", email: "test1@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
@@ -1371,8 +1383,8 @@
         <v>203</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="1">"StudentUser.new({id:"&amp;A3&amp;" , username: """&amp;D3&amp;""", first_name: """&amp;B3&amp;""", last_name: """&amp;C3&amp;""", display_name: """&amp;B3&amp;" "&amp;C3&amp;""", email: """&amp;D3&amp;""", password: ""test""}).save"</f>
-        <v>StudentUser.new({id:2 , username: "test2@test.com", first_name: "Ronald ", last_name: "Brooks", display_name: "Ronald  Brooks", email: "test2@test.com", password: "test"}).save</v>
+        <f t="shared" ref="F3:F66" si="1">"StudentUser.new({username: """&amp;D3&amp;""", first_name: """&amp;B3&amp;""", last_name: """&amp;C3&amp;""", display_name: """&amp;B3&amp;" "&amp;C3&amp;""", email: """&amp;D3&amp;""", password: ""test""}).save"</f>
+        <v>StudentUser.new({username: "test2@test.com", first_name: "Ronald ", last_name: "Brooks", display_name: "Ronald  Brooks", email: "test2@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
@@ -1395,7 +1407,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:3 , username: "test3@test.com", first_name: "Lisa ", last_name: "Moore", display_name: "Lisa  Moore", email: "test3@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test3@test.com", first_name: "Lisa ", last_name: "Moore", display_name: "Lisa  Moore", email: "test3@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
@@ -1418,7 +1430,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:4 , username: "test4@test.com", first_name: "Chris ", last_name: "Young", display_name: "Chris  Young", email: "test4@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test4@test.com", first_name: "Chris ", last_name: "Young", display_name: "Chris  Young", email: "test4@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1441,7 +1453,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:5 , username: "test5@test.com", first_name: "Theresa ", last_name: "Ramirez", display_name: "Theresa  Ramirez", email: "test5@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test5@test.com", first_name: "Theresa ", last_name: "Ramirez", display_name: "Theresa  Ramirez", email: "test5@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
@@ -1464,7 +1476,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:6 , username: "test6@test.com", first_name: "Anna ", last_name: "Brown", display_name: "Anna  Brown", email: "test6@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test6@test.com", first_name: "Anna ", last_name: "Brown", display_name: "Anna  Brown", email: "test6@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17">
@@ -1487,7 +1499,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:7 , username: "test7@test.com", first_name: "Angela ", last_name: "Alexander", display_name: "Angela  Alexander", email: "test7@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test7@test.com", first_name: "Angela ", last_name: "Alexander", display_name: "Angela  Alexander", email: "test7@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17">
@@ -1510,7 +1522,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:8 , username: "test8@test.com", first_name: "Benjamin ", last_name: "Lee", display_name: "Benjamin  Lee", email: "test8@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test8@test.com", first_name: "Benjamin ", last_name: "Lee", display_name: "Benjamin  Lee", email: "test8@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17">
@@ -1533,7 +1545,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:9 , username: "test9@test.com", first_name: "Timothy ", last_name: "Garcia", display_name: "Timothy  Garcia", email: "test9@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test9@test.com", first_name: "Timothy ", last_name: "Garcia", display_name: "Timothy  Garcia", email: "test9@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
@@ -1556,7 +1568,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:10 , username: "test10@test.com", first_name: "Sean ", last_name: "Hall", display_name: "Sean  Hall", email: "test10@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test10@test.com", first_name: "Sean ", last_name: "Hall", display_name: "Sean  Hall", email: "test10@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17">
@@ -1579,7 +1591,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:11 , username: "test11@test.com", first_name: "Raymond ", last_name: "Williams", display_name: "Raymond  Williams", email: "test11@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test11@test.com", first_name: "Raymond ", last_name: "Williams", display_name: "Raymond  Williams", email: "test11@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17">
@@ -1602,7 +1614,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:12 , username: "test12@test.com", first_name: "Helen ", last_name: "Diaz", display_name: "Helen  Diaz", email: "test12@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test12@test.com", first_name: "Helen ", last_name: "Diaz", display_name: "Helen  Diaz", email: "test12@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17">
@@ -1625,7 +1637,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:13 , username: "test13@test.com", first_name: "Emily ", last_name: "Stewart", display_name: "Emily  Stewart", email: "test13@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test13@test.com", first_name: "Emily ", last_name: "Stewart", display_name: "Emily  Stewart", email: "test13@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
@@ -1648,7 +1660,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:14 , username: "test14@test.com", first_name: "Alan ", last_name: "Baker", display_name: "Alan  Baker", email: "test14@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test14@test.com", first_name: "Alan ", last_name: "Baker", display_name: "Alan  Baker", email: "test14@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17">
@@ -1671,7 +1683,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:15 , username: "test15@test.com", first_name: "Kimberly ", last_name: "Wilson", display_name: "Kimberly  Wilson", email: "test15@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test15@test.com", first_name: "Kimberly ", last_name: "Wilson", display_name: "Kimberly  Wilson", email: "test15@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17">
@@ -1694,7 +1706,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:16 , username: "test16@test.com", first_name: "Donna ", last_name: "Bailey", display_name: "Donna  Bailey", email: "test16@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test16@test.com", first_name: "Donna ", last_name: "Bailey", display_name: "Donna  Bailey", email: "test16@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17">
@@ -1717,7 +1729,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:17 , username: "test17@test.com", first_name: "Paula ", last_name: "Rodriguez", display_name: "Paula  Rodriguez", email: "test17@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test17@test.com", first_name: "Paula ", last_name: "Rodriguez", display_name: "Paula  Rodriguez", email: "test17@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
@@ -1740,7 +1752,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:18 , username: "test18@test.com", first_name: "Carlos ", last_name: "Phillips", display_name: "Carlos  Phillips", email: "test18@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test18@test.com", first_name: "Carlos ", last_name: "Phillips", display_name: "Carlos  Phillips", email: "test18@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17">
@@ -1763,7 +1775,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:19 , username: "test19@test.com", first_name: "James ", last_name: "Flores", display_name: "James  Flores", email: "test19@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test19@test.com", first_name: "James ", last_name: "Flores", display_name: "James  Flores", email: "test19@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
@@ -1786,7 +1798,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:20 , username: "test20@test.com", first_name: "Anthony ", last_name: "Johnson", display_name: "Anthony  Johnson", email: "test20@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test20@test.com", first_name: "Anthony ", last_name: "Johnson", display_name: "Anthony  Johnson", email: "test20@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
@@ -1809,7 +1821,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:21 , username: "test21@test.com", first_name: "Clarence ", last_name: "Bryant", display_name: "Clarence  Bryant", email: "test21@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test21@test.com", first_name: "Clarence ", last_name: "Bryant", display_name: "Clarence  Bryant", email: "test21@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
@@ -1832,7 +1844,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:22 , username: "test22@test.com", first_name: "Diane ", last_name: "Parker", display_name: "Diane  Parker", email: "test22@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test22@test.com", first_name: "Diane ", last_name: "Parker", display_name: "Diane  Parker", email: "test22@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17">
@@ -1855,7 +1867,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:23 , username: "test23@test.com", first_name: "Howard ", last_name: "Miller", display_name: "Howard  Miller", email: "test23@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test23@test.com", first_name: "Howard ", last_name: "Miller", display_name: "Howard  Miller", email: "test23@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17">
@@ -1878,7 +1890,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:24 , username: "test24@test.com", first_name: "Gary ", last_name: "Collins", display_name: "Gary  Collins", email: "test24@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test24@test.com", first_name: "Gary ", last_name: "Collins", display_name: "Gary  Collins", email: "test24@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17">
@@ -1901,7 +1913,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:25 , username: "test25@test.com", first_name: "Richard ", last_name: "Morgan", display_name: "Richard  Morgan", email: "test25@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test25@test.com", first_name: "Richard ", last_name: "Morgan", display_name: "Richard  Morgan", email: "test25@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
@@ -1924,7 +1936,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:26 , username: "test26@test.com", first_name: "Rachel ", last_name: "Murphy", display_name: "Rachel  Murphy", email: "test26@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test26@test.com", first_name: "Rachel ", last_name: "Murphy", display_name: "Rachel  Murphy", email: "test26@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17">
@@ -1947,7 +1959,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:27 , username: "test27@test.com", first_name: "Bobby ", last_name: "Scott", display_name: "Bobby  Scott", email: "test27@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test27@test.com", first_name: "Bobby ", last_name: "Scott", display_name: "Bobby  Scott", email: "test27@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17">
@@ -1970,7 +1982,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:28 , username: "test28@test.com", first_name: "Harry ", last_name: "Kelly", display_name: "Harry  Kelly", email: "test28@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test28@test.com", first_name: "Harry ", last_name: "Kelly", display_name: "Harry  Kelly", email: "test28@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
@@ -1993,7 +2005,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:29 , username: "test29@test.com", first_name: "Annie ", last_name: "Anderson", display_name: "Annie  Anderson", email: "test29@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test29@test.com", first_name: "Annie ", last_name: "Anderson", display_name: "Annie  Anderson", email: "test29@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17">
@@ -2016,7 +2028,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:30 , username: "test30@test.com", first_name: "Joe ", last_name: "Peterson", display_name: "Joe  Peterson", email: "test30@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test30@test.com", first_name: "Joe ", last_name: "Peterson", display_name: "Joe  Peterson", email: "test30@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17">
@@ -2039,7 +2051,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:31 , username: "test31@test.com", first_name: "Bruce ", last_name: "Foster", display_name: "Bruce  Foster", email: "test31@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test31@test.com", first_name: "Bruce ", last_name: "Foster", display_name: "Bruce  Foster", email: "test31@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17">
@@ -2062,7 +2074,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:32 , username: "test32@test.com", first_name: "Craig ", last_name: "Cooper", display_name: "Craig  Cooper", email: "test32@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test32@test.com", first_name: "Craig ", last_name: "Cooper", display_name: "Craig  Cooper", email: "test32@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17">
@@ -2085,7 +2097,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:33 , username: "test33@test.com", first_name: "Kathleen ", last_name: "Wood", display_name: "Kathleen  Wood", email: "test33@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test33@test.com", first_name: "Kathleen ", last_name: "Wood", display_name: "Kathleen  Wood", email: "test33@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
@@ -2108,7 +2120,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:34 , username: "test34@test.com", first_name: "Todd ", last_name: "Perez", display_name: "Todd  Perez", email: "test34@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test34@test.com", first_name: "Todd ", last_name: "Perez", display_name: "Todd  Perez", email: "test34@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
@@ -2131,7 +2143,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:35 , username: "test35@test.com", first_name: "Jimmy ", last_name: "Gonzalez", display_name: "Jimmy  Gonzalez", email: "test35@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test35@test.com", first_name: "Jimmy ", last_name: "Gonzalez", display_name: "Jimmy  Gonzalez", email: "test35@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17">
@@ -2154,7 +2166,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:36 , username: "test36@test.com", first_name: "Aaron ", last_name: "Powell", display_name: "Aaron  Powell", email: "test36@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test36@test.com", first_name: "Aaron ", last_name: "Powell", display_name: "Aaron  Powell", email: "test36@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17">
@@ -2177,7 +2189,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:37 , username: "test37@test.com", first_name: "Stephen ", last_name: "Perry", display_name: "Stephen  Perry", email: "test37@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test37@test.com", first_name: "Stephen ", last_name: "Perry", display_name: "Stephen  Perry", email: "test37@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17">
@@ -2200,7 +2212,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:38 , username: "test38@test.com", first_name: "Andrea ", last_name: "Barnes", display_name: "Andrea  Barnes", email: "test38@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test38@test.com", first_name: "Andrea ", last_name: "Barnes", display_name: "Andrea  Barnes", email: "test38@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17">
@@ -2223,7 +2235,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:39 , username: "test39@test.com", first_name: "Nicole ", last_name: "Gray", display_name: "Nicole  Gray", email: "test39@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test39@test.com", first_name: "Nicole ", last_name: "Gray", display_name: "Nicole  Gray", email: "test39@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17">
@@ -2246,7 +2258,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:40 , username: "test40@test.com", first_name: "Linda ", last_name: "Butler", display_name: "Linda  Butler", email: "test40@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test40@test.com", first_name: "Linda ", last_name: "Butler", display_name: "Linda  Butler", email: "test40@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17">
@@ -2269,7 +2281,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:41 , username: "test41@test.com", first_name: "Anne ", last_name: "Clark", display_name: "Anne  Clark", email: "test41@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test41@test.com", first_name: "Anne ", last_name: "Clark", display_name: "Anne  Clark", email: "test41@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17">
@@ -2292,7 +2304,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:42 , username: "test42@test.com", first_name: "Douglas ", last_name: "Adams", display_name: "Douglas  Adams", email: "test42@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test42@test.com", first_name: "Douglas ", last_name: "Adams", display_name: "Douglas  Adams", email: "test42@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
@@ -2315,7 +2327,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:43 , username: "test43@test.com", first_name: "Barbara ", last_name: "Morris", display_name: "Barbara  Morris", email: "test43@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test43@test.com", first_name: "Barbara ", last_name: "Morris", display_name: "Barbara  Morris", email: "test43@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17">
@@ -2338,7 +2350,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:44 , username: "test44@test.com", first_name: "Kelly ", last_name: "Mitchell", display_name: "Kelly  Mitchell", email: "test44@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test44@test.com", first_name: "Kelly ", last_name: "Mitchell", display_name: "Kelly  Mitchell", email: "test44@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
@@ -2361,7 +2373,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:45 , username: "test45@test.com", first_name: "Donald ", last_name: "Griffin", display_name: "Donald  Griffin", email: "test45@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test45@test.com", first_name: "Donald ", last_name: "Griffin", display_name: "Donald  Griffin", email: "test45@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
@@ -2384,7 +2396,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:46 , username: "test46@test.com", first_name: "Susan ", last_name: "Harris", display_name: "Susan  Harris", email: "test46@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test46@test.com", first_name: "Susan ", last_name: "Harris", display_name: "Susan  Harris", email: "test46@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
@@ -2407,7 +2419,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:47 , username: "test47@test.com", first_name: "Joseph ", last_name: "Thompson", display_name: "Joseph  Thompson", email: "test47@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test47@test.com", first_name: "Joseph ", last_name: "Thompson", display_name: "Joseph  Thompson", email: "test47@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17">
@@ -2430,7 +2442,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:48 , username: "test48@test.com", first_name: "Margaret ", last_name: "Evans", display_name: "Margaret  Evans", email: "test48@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test48@test.com", first_name: "Margaret ", last_name: "Evans", display_name: "Margaret  Evans", email: "test48@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17">
@@ -2453,7 +2465,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:49 , username: "test49@test.com", first_name: "Thomas ", last_name: "Reed", display_name: "Thomas  Reed", email: "test49@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test49@test.com", first_name: "Thomas ", last_name: "Reed", display_name: "Thomas  Reed", email: "test49@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17">
@@ -2476,7 +2488,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:50 , username: "test50@test.com", first_name: "Judy ", last_name: "Wright", display_name: "Judy  Wright", email: "test50@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test50@test.com", first_name: "Judy ", last_name: "Wright", display_name: "Judy  Wright", email: "test50@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
@@ -2499,7 +2511,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:51 , username: "test51@test.com", first_name: "George ", last_name: "Henderson", display_name: "George  Henderson", email: "test51@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test51@test.com", first_name: "George ", last_name: "Henderson", display_name: "George  Henderson", email: "test51@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17">
@@ -2522,7 +2534,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:52 , username: "test52@test.com", first_name: "Fred ", last_name: "Lewis", display_name: "Fred  Lewis", email: "test52@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test52@test.com", first_name: "Fred ", last_name: "Lewis", display_name: "Fred  Lewis", email: "test52@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17">
@@ -2545,7 +2557,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:53 , username: "test53@test.com", first_name: "Jessica ", last_name: "Ward", display_name: "Jessica  Ward", email: "test53@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test53@test.com", first_name: "Jessica ", last_name: "Ward", display_name: "Jessica  Ward", email: "test53@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
@@ -2568,7 +2580,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:54 , username: "test54@test.com", first_name: "Victor ", last_name: "Cook", display_name: "Victor  Cook", email: "test54@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test54@test.com", first_name: "Victor ", last_name: "Cook", display_name: "Victor  Cook", email: "test54@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
@@ -2591,7 +2603,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:55 , username: "test55@test.com", first_name: "Judith ", last_name: "Campbell", display_name: "Judith  Campbell", email: "test55@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test55@test.com", first_name: "Judith ", last_name: "Campbell", display_name: "Judith  Campbell", email: "test55@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
@@ -2614,7 +2626,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:56 , username: "test56@test.com", first_name: "Rebecca ", last_name: "Watson", display_name: "Rebecca  Watson", email: "test56@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test56@test.com", first_name: "Rebecca ", last_name: "Watson", display_name: "Rebecca  Watson", email: "test56@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17">
@@ -2637,7 +2649,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:57 , username: "test57@test.com", first_name: "Frank ", last_name: "Nelson", display_name: "Frank  Nelson", email: "test57@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test57@test.com", first_name: "Frank ", last_name: "Nelson", display_name: "Frank  Nelson", email: "test57@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
@@ -2660,7 +2672,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:58 , username: "test58@test.com", first_name: "Marie ", last_name: "Hernandez", display_name: "Marie  Hernandez", email: "test58@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test58@test.com", first_name: "Marie ", last_name: "Hernandez", display_name: "Marie  Hernandez", email: "test58@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
@@ -2683,7 +2695,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:59 , username: "test59@test.com", first_name: "Louise ", last_name: "Roberts", display_name: "Louise  Roberts", email: "test59@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test59@test.com", first_name: "Louise ", last_name: "Roberts", display_name: "Louise  Roberts", email: "test59@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17">
@@ -2706,7 +2718,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:60 , username: "test60@test.com", first_name: "Lillian ", last_name: "Price", display_name: "Lillian  Price", email: "test60@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test60@test.com", first_name: "Lillian ", last_name: "Price", display_name: "Lillian  Price", email: "test60@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17">
@@ -2729,7 +2741,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:61 , username: "test61@test.com", first_name: "Carl ", last_name: "Richardson", display_name: "Carl  Richardson", email: "test61@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test61@test.com", first_name: "Carl ", last_name: "Richardson", display_name: "Carl  Richardson", email: "test61@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17">
@@ -2752,7 +2764,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:62 , username: "test62@test.com", first_name: "Bonnie ", last_name: "Jackson", display_name: "Bonnie  Jackson", email: "test62@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test62@test.com", first_name: "Bonnie ", last_name: "Jackson", display_name: "Bonnie  Jackson", email: "test62@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17">
@@ -2775,7 +2787,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:63 , username: "test63@test.com", first_name: "Deborah ", last_name: "Carter", display_name: "Deborah  Carter", email: "test63@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test63@test.com", first_name: "Deborah ", last_name: "Carter", display_name: "Deborah  Carter", email: "test63@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
@@ -2798,7 +2810,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:64 , username: "test64@test.com", first_name: "Steven ", last_name: "Howard", display_name: "Steven  Howard", email: "test64@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test64@test.com", first_name: "Steven ", last_name: "Howard", display_name: "Steven  Howard", email: "test64@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17">
@@ -2821,7 +2833,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="1"/>
-        <v>StudentUser.new({id:65 , username: "test65@test.com", first_name: "Heather ", last_name: "Smith", display_name: "Heather  Smith", email: "test65@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test65@test.com", first_name: "Heather ", last_name: "Smith", display_name: "Heather  Smith", email: "test65@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
@@ -2843,8 +2855,8 @@
         <v>203</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F100" si="4">"StudentUser.new({id:"&amp;A67&amp;" , username: """&amp;D67&amp;""", first_name: """&amp;B67&amp;""", last_name: """&amp;C67&amp;""", display_name: """&amp;B67&amp;" "&amp;C67&amp;""", email: """&amp;D67&amp;""", password: ""test""}).save"</f>
-        <v>StudentUser.new({id:66 , username: "test66@test.com", first_name: "Mark ", last_name: "Gonzales", display_name: "Mark  Gonzales", email: "test66@test.com", password: "test"}).save</v>
+        <f t="shared" ref="F67:F100" si="4">"StudentUser.new({username: """&amp;D67&amp;""", first_name: """&amp;B67&amp;""", last_name: """&amp;C67&amp;""", display_name: """&amp;B67&amp;" "&amp;C67&amp;""", email: """&amp;D67&amp;""", password: ""test""}).save"</f>
+        <v>StudentUser.new({username: "test66@test.com", first_name: "Mark ", last_name: "Gonzales", display_name: "Mark  Gonzales", email: "test66@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17">
@@ -2867,7 +2879,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:67 , username: "test67@test.com", first_name: "Jane ", last_name: "Robinson", display_name: "Jane  Robinson", email: "test67@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test67@test.com", first_name: "Jane ", last_name: "Robinson", display_name: "Jane  Robinson", email: "test67@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17">
@@ -2890,7 +2902,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:68 , username: "test68@test.com", first_name: "Brenda ", last_name: "Davis", display_name: "Brenda  Davis", email: "test68@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test68@test.com", first_name: "Brenda ", last_name: "Davis", display_name: "Brenda  Davis", email: "test68@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17">
@@ -2913,7 +2925,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:69 , username: "test69@test.com", first_name: "Jack ", last_name: "Coleman", display_name: "Jack  Coleman", email: "test69@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test69@test.com", first_name: "Jack ", last_name: "Coleman", display_name: "Jack  Coleman", email: "test69@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17">
@@ -2936,7 +2948,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:70 , username: "test70@test.com", first_name: "Phillip ", last_name: "Taylor", display_name: "Phillip  Taylor", email: "test70@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test70@test.com", first_name: "Phillip ", last_name: "Taylor", display_name: "Phillip  Taylor", email: "test70@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17">
@@ -2959,7 +2971,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:71 , username: "test71@test.com", first_name: "Lois ", last_name: "Green", display_name: "Lois  Green", email: "test71@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test71@test.com", first_name: "Lois ", last_name: "Green", display_name: "Lois  Green", email: "test71@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17">
@@ -2982,7 +2994,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:72 , username: "test72@test.com", first_name: "Albert ", last_name: "Sanders", display_name: "Albert  Sanders", email: "test72@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test72@test.com", first_name: "Albert ", last_name: "Sanders", display_name: "Albert  Sanders", email: "test72@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17">
@@ -3005,7 +3017,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:73 , username: "test73@test.com", first_name: "Stephanie ", last_name: "Simmons", display_name: "Stephanie  Simmons", email: "test73@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test73@test.com", first_name: "Stephanie ", last_name: "Simmons", display_name: "Stephanie  Simmons", email: "test73@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17">
@@ -3028,7 +3040,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:74 , username: "test74@test.com", first_name: "Randy ", last_name: "Russell", display_name: "Randy  Russell", email: "test74@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test74@test.com", first_name: "Randy ", last_name: "Russell", display_name: "Randy  Russell", email: "test74@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17">
@@ -3051,7 +3063,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:75 , username: "test75@test.com", first_name: "Charles ", last_name: "Thomas", display_name: "Charles  Thomas", email: "test75@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test75@test.com", first_name: "Charles ", last_name: "Thomas", display_name: "Charles  Thomas", email: "test75@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17">
@@ -3074,7 +3086,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:76 , username: "test76@test.com", first_name: "John ", last_name: "Hughes", display_name: "John  Hughes", email: "test76@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test76@test.com", first_name: "John ", last_name: "Hughes", display_name: "John  Hughes", email: "test76@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17">
@@ -3097,7 +3109,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:77 , username: "test77@test.com", first_name: "Eric ", last_name: "Edwards", display_name: "Eric  Edwards", email: "test77@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test77@test.com", first_name: "Eric ", last_name: "Edwards", display_name: "Eric  Edwards", email: "test77@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17">
@@ -3120,7 +3132,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:78 , username: "test78@test.com", first_name: "Jean ", last_name: "Sanchez", display_name: "Jean  Sanchez", email: "test78@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test78@test.com", first_name: "Jean ", last_name: "Sanchez", display_name: "Jean  Sanchez", email: "test78@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
@@ -3143,7 +3155,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:79 , username: "test79@test.com", first_name: "Nancy ", last_name: "Rivera", display_name: "Nancy  Rivera", email: "test79@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test79@test.com", first_name: "Nancy ", last_name: "Rivera", display_name: "Nancy  Rivera", email: "test79@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17">
@@ -3166,7 +3178,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:80 , username: "test80@test.com", first_name: "Keith ", last_name: "Martin", display_name: "Keith  Martin", email: "test80@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test80@test.com", first_name: "Keith ", last_name: "Martin", display_name: "Keith  Martin", email: "test80@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17">
@@ -3189,7 +3201,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:81 , username: "test81@test.com", first_name: "Robert ", last_name: "Turner", display_name: "Robert  Turner", email: "test81@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test81@test.com", first_name: "Robert ", last_name: "Turner", display_name: "Robert  Turner", email: "test81@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17">
@@ -3212,7 +3224,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:82 , username: "test82@test.com", first_name: "Ralph ", last_name: "Torres", display_name: "Ralph  Torres", email: "test82@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test82@test.com", first_name: "Ralph ", last_name: "Torres", display_name: "Ralph  Torres", email: "test82@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17">
@@ -3235,7 +3247,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:83 , username: "test83@test.com", first_name: "Arthur ", last_name: "Washington", display_name: "Arthur  Washington", email: "test83@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test83@test.com", first_name: "Arthur ", last_name: "Washington", display_name: "Arthur  Washington", email: "test83@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17">
@@ -3258,7 +3270,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:84 , username: "test84@test.com", first_name: "Cheryl ", last_name: "Long", display_name: "Cheryl  Long", email: "test84@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test84@test.com", first_name: "Cheryl ", last_name: "Long", display_name: "Cheryl  Long", email: "test84@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17">
@@ -3281,7 +3293,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:85 , username: "test85@test.com", first_name: "Lawrence ", last_name: "Patterson", display_name: "Lawrence  Patterson", email: "test85@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test85@test.com", first_name: "Lawrence ", last_name: "Patterson", display_name: "Lawrence  Patterson", email: "test85@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17">
@@ -3304,7 +3316,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:86 , username: "test86@test.com", first_name: "Roger ", last_name: "Bennett", display_name: "Roger  Bennett", email: "test86@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test86@test.com", first_name: "Roger ", last_name: "Bennett", display_name: "Roger  Bennett", email: "test86@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17">
@@ -3327,7 +3339,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:87 , username: "test87@test.com", first_name: "Norma ", last_name: "Bell", display_name: "Norma  Bell", email: "test87@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test87@test.com", first_name: "Norma ", last_name: "Bell", display_name: "Norma  Bell", email: "test87@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17">
@@ -3350,7 +3362,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:88 , username: "test88@test.com", first_name: "Kathryn ", last_name: "King", display_name: "Kathryn  King", email: "test88@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test88@test.com", first_name: "Kathryn ", last_name: "King", display_name: "Kathryn  King", email: "test88@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17">
@@ -3373,7 +3385,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:89 , username: "test89@test.com", first_name: "Teresa ", last_name: "Allen", display_name: "Teresa  Allen", email: "test89@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test89@test.com", first_name: "Teresa ", last_name: "Allen", display_name: "Teresa  Allen", email: "test89@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17">
@@ -3396,7 +3408,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:90 , username: "test90@test.com", first_name: "Ruby ", last_name: "White", display_name: "Ruby  White", email: "test90@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test90@test.com", first_name: "Ruby ", last_name: "White", display_name: "Ruby  White", email: "test90@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17">
@@ -3419,7 +3431,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:91 , username: "test91@test.com", first_name: "Joyce ", last_name: "Walker", display_name: "Joyce  Walker", email: "test91@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test91@test.com", first_name: "Joyce ", last_name: "Walker", display_name: "Joyce  Walker", email: "test91@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17">
@@ -3442,7 +3454,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:92 , username: "test92@test.com", first_name: "Larry ", last_name: "Jones", display_name: "Larry  Jones", email: "test92@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test92@test.com", first_name: "Larry ", last_name: "Jones", display_name: "Larry  Jones", email: "test92@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17">
@@ -3465,7 +3477,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:93 , username: "test93@test.com", first_name: "Sarah ", last_name: "Cox", display_name: "Sarah  Cox", email: "test93@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test93@test.com", first_name: "Sarah ", last_name: "Cox", display_name: "Sarah  Cox", email: "test93@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17">
@@ -3488,7 +3500,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:94 , username: "test94@test.com", first_name: "Henry ", last_name: "Jenkins", display_name: "Henry  Jenkins", email: "test94@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test94@test.com", first_name: "Henry ", last_name: "Jenkins", display_name: "Henry  Jenkins", email: "test94@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17">
@@ -3511,7 +3523,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:95 , username: "test95@test.com", first_name: "Julie ", last_name: "Lopez", display_name: "Julie  Lopez", email: "test95@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test95@test.com", first_name: "Julie ", last_name: "Lopez", display_name: "Julie  Lopez", email: "test95@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17">
@@ -3534,7 +3546,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:96 , username: "test96@test.com", first_name: "Virginia ", last_name: "James", display_name: "Virginia  James", email: "test96@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test96@test.com", first_name: "Virginia ", last_name: "James", display_name: "Virginia  James", email: "test96@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17">
@@ -3557,7 +3569,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:97 , username: "test97@test.com", first_name: "Lori ", last_name: "Ross", display_name: "Lori  Ross", email: "test97@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test97@test.com", first_name: "Lori ", last_name: "Ross", display_name: "Lori  Ross", email: "test97@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17">
@@ -3580,7 +3592,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:98 , username: "test98@test.com", first_name: "Joan ", last_name: "Rogers", display_name: "Joan  Rogers", email: "test98@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test98@test.com", first_name: "Joan ", last_name: "Rogers", display_name: "Joan  Rogers", email: "test98@test.com", password: "test"}).save</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17">
@@ -3603,7 +3615,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="4"/>
-        <v>StudentUser.new({id:99 , username: "test99@test.com", first_name: "Sara ", last_name: "Martinez", display_name: "Sara  Martinez", email: "test99@test.com", password: "test"}).save</v>
+        <v>StudentUser.new({username: "test99@test.com", first_name: "Sara ", last_name: "Martinez", display_name: "Sara  Martinez", email: "test99@test.com", password: "test"}).save</v>
       </c>
     </row>
   </sheetData>
@@ -3621,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3641,8 +3653,8 @@
         <v>231</v>
       </c>
       <c r="E1" t="str">
-        <f>"Activity.new({id: "&amp;A1&amp;", name:"""&amp;B1&amp;""", description: """&amp;C1&amp;""", instructions: """&amp;D1&amp;""", teacher_user_id: 100, activity_type: ""scored""}).save"</f>
-        <v>Activity.new({id: 1, name:"Multiplication", description: "ThatQuiz", instructions: "90%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <f>"Activity.new({name:"""&amp;B1&amp;""", description: """&amp;C1&amp;""", instructions: """&amp;D1&amp;""", teacher_user_id: 1, activity_type: ""scored""}).save"</f>
+        <v>Activity.new({name:"Multiplication", description: "ThatQuiz", instructions: "90%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -3684,8 +3696,8 @@
         <v>232</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E24" si="0">"Activity.new({id: "&amp;A2&amp;", name:"""&amp;B2&amp;""", description: """&amp;C2&amp;""", instructions: """&amp;D2&amp;""", teacher_user_id: 100, activity_type: ""scored""}).save"</f>
-        <v>Activity.new({id: 2, name:"Division", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <f t="shared" ref="E2:E24" si="0">"Activity.new({name:"""&amp;B2&amp;""", description: """&amp;C2&amp;""", instructions: """&amp;D2&amp;""", teacher_user_id: 1, activity_type: ""scored""}).save"</f>
+        <v>Activity.new({name:"Division", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -3704,7 +3716,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 3, name:"Long Division1", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Long Division1", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -3725,7 +3737,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 4, name:"Long Division2", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Long Division2", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3746,7 +3758,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 5, name:"Long Division3", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Long Division3", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -3767,7 +3779,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 6, name:"Multiplication without carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Multiplication without carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3788,7 +3800,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 7, name:"Multiplication with carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Multiplication with carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3809,7 +3821,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 8, name:"Multiplying 2 digits by 2 digits", description: "Khan", instructions: "5 in a row", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Multiplying 2 digits by 2 digits", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -3830,7 +3842,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 9, name:"Multi-digit division without remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Multi-digit division without remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -3851,7 +3863,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 10, name:"Division with remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Division with remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -3872,7 +3884,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 11, name:"Multiplication and division word problems", description: "Khan", instructions: "5 in a row", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"Multiplication and division word problems", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -3893,7 +3905,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 12, name:"GCF", description: "Khan", instructions: "5 in a row", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"GCF", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -3914,7 +3926,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 13, name:"L3: Fluently Solve Multiplication Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L3: Fluently Solve Multiplication Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -3935,7 +3947,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 14, name:"L3: Fluently Solve Division Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L3: Fluently Solve Division Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -3956,7 +3968,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 15, name:"L3: Solving Multiplication and Division Verbally", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L3: Solving Multiplication and Division Verbally", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -3977,7 +3989,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 16, name:"L4: Multiplication and Division Strategies", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L4: Multiplication and Division Strategies", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -3998,7 +4010,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 17, name:"L4: Factors", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L4: Factors", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -4019,7 +4031,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 18, name:"L4: Relating Multiplication and Division", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L4: Relating Multiplication and Division", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -4040,7 +4052,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 19, name:"L5: Multiplication with Multi-Digit Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L5: Multiplication with Multi-Digit Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -4061,7 +4073,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 20, name:"L5: Dividing Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L5: Dividing Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -4082,7 +4094,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 21, name:"L5: Complete Equivalent Fractions", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L5: Complete Equivalent Fractions", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -4103,7 +4115,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 22, name:"L5: Finding Equivalent Fractions and Fractions in Simplest Form", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L5: Finding Equivalent Fractions and Fractions in Simplest Form", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -4124,7 +4136,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 23, name:"L6: Identifying the Least Common Multiple", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L6: Identifying the Least Common Multiple", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -4145,7 +4157,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>Activity.new({id: 24, name:"L6: Identifying the Greatest Common Factor", description: "TenMarks", instructions: "80%+", teacher_user_id: 100, activity_type: "scored"}).save</v>
+        <v>Activity.new({name:"L6: Identifying the Greatest Common Factor", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -4174,7 +4186,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E3"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4213,8 +4225,8 @@
         <v>203</v>
       </c>
       <c r="F2" t="str">
-        <f>"TeacherUser.new({id:"&amp;A2&amp;" , username: """&amp;D2&amp;""", first_name: """&amp;B2&amp;""", last_name: """&amp;C2&amp;""", display_name: """&amp;B2&amp;" "&amp;C2&amp;""", email: """&amp;D2&amp;""", password: ""test""}).save"</f>
-        <v>TeacherUser.new({id:100 , username: "dli@sjusd.org", first_name: "Dennis", last_name: "Li", display_name: "Dennis Li", email: "dli@sjusd.org", password: "test"}).save</v>
+        <f>"TeacherUser.new({username: """&amp;D2&amp;""", first_name: """&amp;B2&amp;""", last_name: """&amp;C2&amp;""", display_name: """&amp;B2&amp;" "&amp;C2&amp;""", email: """&amp;D2&amp;""", password: ""test""}).save"</f>
+        <v>TeacherUser.new({username: "dli@sjusd.org", first_name: "Dennis", last_name: "Li", display_name: "Dennis Li", email: "dli@sjusd.org", password: "test"}).save</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4234,8 +4246,8 @@
         <v>203</v>
       </c>
       <c r="F3" t="str">
-        <f>"TeacherUser.new({id:"&amp;A3&amp;" , username: """&amp;D3&amp;""", first_name: """&amp;B3&amp;""", last_name: """&amp;C3&amp;""", display_name: """&amp;B3&amp;" "&amp;C3&amp;""", email: """&amp;D3&amp;""", password: ""test""}).save"</f>
-        <v>TeacherUser.new({id:101 , username: "rgupta@sjusd.org", first_name: "Rupa", last_name: "Gupta", display_name: "Rupa Gupta", email: "rgupta@sjusd.org", password: "test"}).save</v>
+        <f>"TeacherUser.new({username: """&amp;D3&amp;""", first_name: """&amp;B3&amp;""", last_name: """&amp;C3&amp;""", display_name: """&amp;B3&amp;" "&amp;C3&amp;""", email: """&amp;D3&amp;""", password: ""test""}).save"</f>
+        <v>TeacherUser.new({username: "rgupta@sjusd.org", first_name: "Rupa", last_name: "Gupta", display_name: "Rupa Gupta", email: "rgupta@sjusd.org", password: "test"}).save</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
@@ -5034,7 +5046,7 @@
     <row r="2" spans="1:5">
       <c r="A2">
         <f ca="1">CEILING(RAND()*99,1)</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <f ca="1">CEILING(RAND()*3,1)</f>
@@ -5053,12 +5065,12 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <f t="shared" ref="A3:C66" ca="1" si="0">CEILING(RAND()*99,1)</f>
-        <v>48</v>
+        <f t="shared" ref="A3:A66" ca="1" si="0">CEILING(RAND()*99,1)</f>
+        <v>55</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:D66" ca="1" si="1">CEILING(RAND()*3,1)</f>
-        <v>2</v>
+        <f t="shared" ref="B3:B66" ca="1" si="1">CEILING(RAND()*3,1)</f>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>87</v>
@@ -5074,7 +5086,7 @@
     <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
@@ -5094,11 +5106,11 @@
     <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>95</v>
@@ -5114,11 +5126,11 @@
     <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -5134,11 +5146,11 @@
     <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -5154,11 +5166,11 @@
     <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>37</v>
@@ -5174,11 +5186,11 @@
     <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>61</v>
@@ -5194,11 +5206,11 @@
     <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>98</v>
@@ -5214,7 +5226,7 @@
     <row r="11" spans="1:5">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
@@ -5234,11 +5246,11 @@
     <row r="12" spans="1:5">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>51</v>
@@ -5254,11 +5266,11 @@
     <row r="13" spans="1:5">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>49</v>
@@ -5274,11 +5286,11 @@
     <row r="14" spans="1:5">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>59</v>
@@ -5294,11 +5306,11 @@
     <row r="15" spans="1:5">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -5314,11 +5326,11 @@
     <row r="16" spans="1:5">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>86</v>
@@ -5334,11 +5346,11 @@
     <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>65</v>
@@ -5354,11 +5366,11 @@
     <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>54</v>
@@ -5374,11 +5386,11 @@
     <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -5394,11 +5406,11 @@
     <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>76</v>
@@ -5414,7 +5426,7 @@
     <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
@@ -5434,11 +5446,11 @@
     <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>34</v>
@@ -5454,7 +5466,7 @@
     <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
@@ -5474,11 +5486,11 @@
     <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>66</v>
@@ -5494,11 +5506,11 @@
     <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>49</v>
@@ -5514,11 +5526,11 @@
     <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>65</v>
@@ -5534,7 +5546,7 @@
     <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
@@ -5554,7 +5566,7 @@
     <row r="28" spans="1:5">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
@@ -5574,7 +5586,7 @@
     <row r="29" spans="1:5">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
@@ -5594,11 +5606,11 @@
     <row r="30" spans="1:5">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>81</v>
@@ -5614,11 +5626,11 @@
     <row r="31" spans="1:5">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>99</v>
@@ -5634,11 +5646,11 @@
     <row r="32" spans="1:5">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>66</v>
@@ -5654,7 +5666,7 @@
     <row r="33" spans="1:5">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
@@ -5674,11 +5686,11 @@
     <row r="34" spans="1:5">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>92</v>
@@ -5694,7 +5706,7 @@
     <row r="35" spans="1:5">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
@@ -5714,11 +5726,11 @@
     <row r="36" spans="1:5">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>89</v>
@@ -5734,7 +5746,7 @@
     <row r="37" spans="1:5">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
@@ -5754,11 +5766,11 @@
     <row r="38" spans="1:5">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>22</v>
@@ -5774,11 +5786,11 @@
     <row r="39" spans="1:5">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>68</v>
@@ -5794,11 +5806,11 @@
     <row r="40" spans="1:5">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>57</v>
@@ -5814,7 +5826,7 @@
     <row r="41" spans="1:5">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
@@ -5834,11 +5846,11 @@
     <row r="42" spans="1:5">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -5854,7 +5866,7 @@
     <row r="43" spans="1:5">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
@@ -5874,7 +5886,7 @@
     <row r="44" spans="1:5">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
@@ -5894,7 +5906,7 @@
     <row r="45" spans="1:5">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
@@ -5914,7 +5926,7 @@
     <row r="46" spans="1:5">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
@@ -5934,11 +5946,11 @@
     <row r="47" spans="1:5">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>32</v>
@@ -5954,11 +5966,11 @@
     <row r="48" spans="1:5">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -5974,7 +5986,7 @@
     <row r="49" spans="1:5">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
@@ -5994,11 +6006,11 @@
     <row r="50" spans="1:5">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>18</v>
@@ -6014,11 +6026,11 @@
     <row r="51" spans="1:5">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>77</v>
@@ -6034,11 +6046,11 @@
     <row r="52" spans="1:5">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>39</v>
@@ -6054,11 +6066,11 @@
     <row r="53" spans="1:5">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>84</v>
@@ -6074,11 +6086,11 @@
     <row r="54" spans="1:5">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>69</v>
@@ -6094,11 +6106,11 @@
     <row r="55" spans="1:5">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>60</v>
@@ -6114,11 +6126,11 @@
     <row r="56" spans="1:5">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>72</v>
@@ -6134,7 +6146,7 @@
     <row r="57" spans="1:5">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
@@ -6154,11 +6166,11 @@
     <row r="58" spans="1:5">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>77</v>
@@ -6174,7 +6186,7 @@
     <row r="59" spans="1:5">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
@@ -6194,11 +6206,11 @@
     <row r="60" spans="1:5">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>25</v>
@@ -6214,11 +6226,11 @@
     <row r="61" spans="1:5">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>51</v>
@@ -6234,11 +6246,11 @@
     <row r="62" spans="1:5">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>19</v>
@@ -6254,11 +6266,11 @@
     <row r="63" spans="1:5">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>35</v>
@@ -6274,11 +6286,11 @@
     <row r="64" spans="1:5">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>21</v>
@@ -6294,11 +6306,11 @@
     <row r="65" spans="1:5">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>36</v>
@@ -6314,7 +6326,7 @@
     <row r="66" spans="1:5">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
@@ -6333,12 +6345,12 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <f t="shared" ref="A67:C130" ca="1" si="3">CEILING(RAND()*99,1)</f>
-        <v>3</v>
+        <f t="shared" ref="A67:A130" ca="1" si="3">CEILING(RAND()*99,1)</f>
+        <v>10</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:D130" ca="1" si="4">CEILING(RAND()*3,1)</f>
-        <v>1</v>
+        <f t="shared" ref="B67:B130" ca="1" si="4">CEILING(RAND()*3,1)</f>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>85</v>
@@ -6354,11 +6366,11 @@
     <row r="68" spans="1:5">
       <c r="A68">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>52</v>
@@ -6374,11 +6386,11 @@
     <row r="69" spans="1:5">
       <c r="A69">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>32</v>
@@ -6394,11 +6406,11 @@
     <row r="70" spans="1:5">
       <c r="A70">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>19</v>
@@ -6414,11 +6426,11 @@
     <row r="71" spans="1:5">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>60</v>
@@ -6434,11 +6446,11 @@
     <row r="72" spans="1:5">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>95</v>
@@ -6454,11 +6466,11 @@
     <row r="73" spans="1:5">
       <c r="A73">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>86</v>
@@ -6474,11 +6486,11 @@
     <row r="74" spans="1:5">
       <c r="A74">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>46</v>
@@ -6494,11 +6506,11 @@
     <row r="75" spans="1:5">
       <c r="A75">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -6514,7 +6526,7 @@
     <row r="76" spans="1:5">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="4"/>
@@ -6534,11 +6546,11 @@
     <row r="77" spans="1:5">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>46</v>
@@ -6554,7 +6566,7 @@
     <row r="78" spans="1:5">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="4"/>
@@ -6574,7 +6586,7 @@
     <row r="79" spans="1:5">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="4"/>
@@ -6594,7 +6606,7 @@
     <row r="80" spans="1:5">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="4"/>
@@ -6614,7 +6626,7 @@
     <row r="81" spans="1:5">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="4"/>
@@ -6634,11 +6646,11 @@
     <row r="82" spans="1:5">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>69</v>
@@ -6654,7 +6666,7 @@
     <row r="83" spans="1:5">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="4"/>
@@ -6674,11 +6686,11 @@
     <row r="84" spans="1:5">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>45</v>
@@ -6694,11 +6706,11 @@
     <row r="85" spans="1:5">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -6714,11 +6726,11 @@
     <row r="86" spans="1:5">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>39</v>
@@ -6734,11 +6746,11 @@
     <row r="87" spans="1:5">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>33</v>
@@ -6754,7 +6766,7 @@
     <row r="88" spans="1:5">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="4"/>
@@ -6774,7 +6786,7 @@
     <row r="89" spans="1:5">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="4"/>
@@ -6794,11 +6806,11 @@
     <row r="90" spans="1:5">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>98</v>
@@ -6814,11 +6826,11 @@
     <row r="91" spans="1:5">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>16</v>
@@ -6834,7 +6846,7 @@
     <row r="92" spans="1:5">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="4"/>
@@ -6854,7 +6866,7 @@
     <row r="93" spans="1:5">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="4"/>
@@ -6874,7 +6886,7 @@
     <row r="94" spans="1:5">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="4"/>
@@ -6894,11 +6906,11 @@
     <row r="95" spans="1:5">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>36</v>
@@ -6914,7 +6926,7 @@
     <row r="96" spans="1:5">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="4"/>
@@ -6934,11 +6946,11 @@
     <row r="97" spans="1:5">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>49</v>
@@ -6954,11 +6966,11 @@
     <row r="98" spans="1:5">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>94</v>
@@ -6974,11 +6986,11 @@
     <row r="99" spans="1:5">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>62</v>
@@ -6994,11 +7006,11 @@
     <row r="100" spans="1:5">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>32</v>
@@ -7014,11 +7026,11 @@
     <row r="101" spans="1:5">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>73</v>
@@ -7034,11 +7046,11 @@
     <row r="102" spans="1:5">
       <c r="A102">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102">
         <v>87</v>
@@ -7054,11 +7066,11 @@
     <row r="103" spans="1:5">
       <c r="A103">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>58</v>
@@ -7074,11 +7086,11 @@
     <row r="104" spans="1:5">
       <c r="A104">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>19</v>
@@ -7094,11 +7106,11 @@
     <row r="105" spans="1:5">
       <c r="A105">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>6</v>
@@ -7114,7 +7126,7 @@
     <row r="106" spans="1:5">
       <c r="A106">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="4"/>
@@ -7134,11 +7146,11 @@
     <row r="107" spans="1:5">
       <c r="A107">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>53</v>
@@ -7154,11 +7166,11 @@
     <row r="108" spans="1:5">
       <c r="A108">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <v>19</v>
@@ -7174,11 +7186,11 @@
     <row r="109" spans="1:5">
       <c r="A109">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>93</v>
@@ -7194,11 +7206,11 @@
     <row r="110" spans="1:5">
       <c r="A110">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>35</v>
@@ -7214,11 +7226,11 @@
     <row r="111" spans="1:5">
       <c r="A111">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -7234,7 +7246,7 @@
     <row r="112" spans="1:5">
       <c r="A112">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="4"/>
@@ -7254,11 +7266,11 @@
     <row r="113" spans="1:5">
       <c r="A113">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>25</v>
@@ -7274,11 +7286,11 @@
     <row r="114" spans="1:5">
       <c r="A114">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>94</v>
@@ -7294,11 +7306,11 @@
     <row r="115" spans="1:5">
       <c r="A115">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>22</v>
@@ -7314,11 +7326,11 @@
     <row r="116" spans="1:5">
       <c r="A116">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>52</v>
@@ -7334,11 +7346,11 @@
     <row r="117" spans="1:5">
       <c r="A117">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>68</v>
@@ -7354,11 +7366,11 @@
     <row r="118" spans="1:5">
       <c r="A118">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>82</v>
@@ -7374,11 +7386,11 @@
     <row r="119" spans="1:5">
       <c r="A119">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>57</v>
@@ -7394,11 +7406,11 @@
     <row r="120" spans="1:5">
       <c r="A120">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>75</v>
@@ -7414,11 +7426,11 @@
     <row r="121" spans="1:5">
       <c r="A121">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>53</v>
@@ -7434,11 +7446,11 @@
     <row r="122" spans="1:5">
       <c r="A122">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -7454,7 +7466,7 @@
     <row r="123" spans="1:5">
       <c r="A123">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="4"/>
@@ -7474,11 +7486,11 @@
     <row r="124" spans="1:5">
       <c r="A124">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>51</v>
@@ -7494,11 +7506,11 @@
     <row r="125" spans="1:5">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>78</v>
@@ -7514,11 +7526,11 @@
     <row r="126" spans="1:5">
       <c r="A126">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>78</v>
@@ -7534,11 +7546,11 @@
     <row r="127" spans="1:5">
       <c r="A127">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127">
         <v>38</v>
@@ -7554,7 +7566,7 @@
     <row r="128" spans="1:5">
       <c r="A128">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="4"/>
@@ -7574,11 +7586,11 @@
     <row r="129" spans="1:5">
       <c r="A129">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>40</v>
@@ -7594,11 +7606,11 @@
     <row r="130" spans="1:5">
       <c r="A130">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130">
         <v>67</v>
@@ -7613,11 +7625,11 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <f t="shared" ref="A131:C141" ca="1" si="6">CEILING(RAND()*99,1)</f>
-        <v>49</v>
+        <f t="shared" ref="A131:A141" ca="1" si="6">CEILING(RAND()*99,1)</f>
+        <v>75</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:D141" ca="1" si="7">CEILING(RAND()*3,1)</f>
+        <f t="shared" ref="B131:B141" ca="1" si="7">CEILING(RAND()*3,1)</f>
         <v>3</v>
       </c>
       <c r="C131">
@@ -7634,11 +7646,11 @@
     <row r="132" spans="1:5">
       <c r="A132">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>15</v>
@@ -7654,11 +7666,11 @@
     <row r="133" spans="1:5">
       <c r="A133">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>17</v>
@@ -7674,7 +7686,7 @@
     <row r="134" spans="1:5">
       <c r="A134">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="7"/>
@@ -7694,11 +7706,11 @@
     <row r="135" spans="1:5">
       <c r="A135">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>83</v>
@@ -7714,7 +7726,7 @@
     <row r="136" spans="1:5">
       <c r="A136">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="7"/>
@@ -7734,11 +7746,11 @@
     <row r="137" spans="1:5">
       <c r="A137">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>85</v>
@@ -7754,11 +7766,11 @@
     <row r="138" spans="1:5">
       <c r="A138">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>66</v>
@@ -7774,11 +7786,11 @@
     <row r="139" spans="1:5">
       <c r="A139">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>66</v>
@@ -7794,7 +7806,7 @@
     <row r="140" spans="1:5">
       <c r="A140">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="7"/>
@@ -7814,11 +7826,11 @@
     <row r="141" spans="1:5">
       <c r="A141">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>97</v>

--- a/app/assets/TestDataSpreadsheet.xlsx
+++ b/app/assets/TestDataSpreadsheet.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
     <sheet name="activities" sheetId="2" r:id="rId2"/>
-    <sheet name="teachers" sheetId="3" r:id="rId3"/>
-    <sheet name="classrooms" sheetId="4" r:id="rId4"/>
-    <sheet name="classroom_activities" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="activity_tags" sheetId="7" r:id="rId3"/>
+    <sheet name="teachers" sheetId="3" r:id="rId4"/>
+    <sheet name="classrooms" sheetId="4" r:id="rId5"/>
+    <sheet name="classroom_activities" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="265">
   <si>
     <t>studentId</t>
   </si>
@@ -786,6 +787,39 @@
   </si>
   <si>
     <t>student_id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Activity Type</t>
+  </si>
+  <si>
+    <t>Min Score</t>
+  </si>
+  <si>
+    <t>Max Score</t>
+  </si>
+  <si>
+    <t>Benchmark1</t>
+  </si>
+  <si>
+    <t>Benchmark2</t>
+  </si>
+  <si>
+    <t>scored</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>nil</t>
   </si>
 </sst>
 </file>
@@ -856,7 +890,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -918,6 +952,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -927,7 +967,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="29"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -973,6 +1013,12 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1319,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F100"/>
     </sheetView>
   </sheetViews>
@@ -3631,82 +3677,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="58.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:36">
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" t="str">
-        <f>"Activity.new({name:"""&amp;B1&amp;""", description: """&amp;C1&amp;""", instructions: """&amp;D1&amp;""", teacher_user_id: 1, activity_type: ""scored""}).save"</f>
-        <v>Activity.new({name:"Multiplication", description: "ThatQuiz", instructions: "90%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2">
-        <f>A1+1</f>
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E24" si="0">"Activity.new({name:"""&amp;B2&amp;""", description: """&amp;C2&amp;""", instructions: """&amp;D2&amp;""", teacher_user_id: 1, activity_type: ""scored""}).save"</f>
-        <v>Activity.new({name:"Division", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+        <v>231</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2" s="4">
+        <v>90</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"Activity.new({name:"""&amp;B2&amp;""", description: """&amp;C2&amp;""", instructions: """&amp;D2&amp;""", teacher_user_id: 1, activity_type: """&amp;E2&amp;""", min_score: "&amp;F2&amp;" ,max_score: "&amp;G2&amp;", benchmark1_score: "&amp;H2&amp;", benchmark2_score: "&amp;I2&amp;" }).save"</f>
+        <v>Activity.new({name:"Multiplication", description: "ThatQuiz", instructions: "90%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 70, benchmark2_score: 90 }).save</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3">
-        <f t="shared" ref="A3:A24" si="1">A2+1</f>
-        <v>3</v>
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>228</v>
@@ -3714,20 +3785,33 @@
       <c r="D3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Long Division1", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="E3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="4">
+        <v>80</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J25" si="0">"Activity.new({name:"""&amp;B3&amp;""", description: """&amp;C3&amp;""", instructions: """&amp;D3&amp;""", teacher_user_id: 1, activity_type: """&amp;E3&amp;""", min_score: "&amp;F3&amp;" ,max_score: "&amp;G3&amp;", benchmark1_score: "&amp;H3&amp;", benchmark2_score: "&amp;I3&amp;" }).save"</f>
+        <v>Activity.new({name:"Division", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="A4:A25" si="1">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>228</v>
@@ -3735,20 +3819,35 @@
       <c r="D4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Long Division2", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="E4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="4">
+        <v>80</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Long Division1", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>228</v>
@@ -3756,41 +3855,71 @@
       <c r="D5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Long Division3", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="E5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="4">
+        <v>80</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Long Division2", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4">
+        <v>80</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Long Division3", description: "ThatQuiz", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Multiplication without carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>229</v>
@@ -3798,20 +3927,35 @@
       <c r="D7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Multiplication with carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="E7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Multiplication without carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "completion", min_score: nil ,max_score: nil, benchmark1_score: nil, benchmark2_score: nil }).save</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>229</v>
@@ -3819,20 +3963,35 @@
       <c r="D8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Multiplying 2 digits by 2 digits", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="E8" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Multiplication with carrying", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "completion", min_score: nil ,max_score: nil, benchmark1_score: nil, benchmark2_score: nil }).save</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>229</v>
@@ -3840,20 +3999,35 @@
       <c r="D9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Multi-digit division without remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="E9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Multiplying 2 digits by 2 digits", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "completion", min_score: nil ,max_score: nil, benchmark1_score: nil, benchmark2_score: nil }).save</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>229</v>
@@ -3861,20 +4035,35 @@
       <c r="D10" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Division with remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="E10" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Multi-digit division without remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "completion", min_score: nil ,max_score: nil, benchmark1_score: nil, benchmark2_score: nil }).save</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>229</v>
@@ -3882,20 +4071,35 @@
       <c r="D11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"Multiplication and division word problems", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="E11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Division with remainders", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "completion", min_score: nil ,max_score: nil, benchmark1_score: nil, benchmark2_score: nil }).save</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>229</v>
@@ -3903,41 +4107,71 @@
       <c r="D12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"GCF", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="E12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"Multiplication and division word problems", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "completion", min_score: nil ,max_score: nil, benchmark1_score: nil, benchmark2_score: nil }).save</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"GCF", description: "Khan", instructions: "5 in a row", teacher_user_id: 1, activity_type: "completion", min_score: nil ,max_score: nil, benchmark1_score: nil, benchmark2_score: nil }).save</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L3: Fluently Solve Multiplication Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>230</v>
@@ -3945,20 +4179,35 @@
       <c r="D14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L3: Fluently Solve Division Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="E14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4">
+        <v>80</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L3: Fluently Solve Multiplication Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>230</v>
@@ -3966,20 +4215,35 @@
       <c r="D15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L3: Solving Multiplication and Division Verbally", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="E15" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15" s="4">
+        <v>80</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L3: Fluently Solve Division Problems", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>230</v>
@@ -3987,20 +4251,35 @@
       <c r="D16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L4: Multiplication and Division Strategies", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="E16" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16" s="4">
+        <v>80</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L3: Solving Multiplication and Division Verbally", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>230</v>
@@ -4008,20 +4287,35 @@
       <c r="D17" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L4: Factors", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="E17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17" s="4">
+        <v>80</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L4: Multiplication and Division Strategies", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>230</v>
@@ -4029,20 +4323,35 @@
       <c r="D18" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L4: Relating Multiplication and Division", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="E18" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18" s="4">
+        <v>80</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L4: Factors", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>230</v>
@@ -4050,20 +4359,35 @@
       <c r="D19" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L5: Multiplication with Multi-Digit Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="E19" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4">
+        <v>80</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L4: Relating Multiplication and Division", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>230</v>
@@ -4071,20 +4395,35 @@
       <c r="D20" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L5: Dividing Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="E20" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20" s="4">
+        <v>80</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L5: Multiplication with Multi-Digit Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>230</v>
@@ -4092,20 +4431,35 @@
       <c r="D21" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L5: Complete Equivalent Fractions", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="E21" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21" s="4">
+        <v>80</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L5: Dividing Whole Numbers", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>230</v>
@@ -4113,20 +4467,35 @@
       <c r="D22" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L5: Finding Equivalent Fractions and Fractions in Simplest Form", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="E22" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
+      </c>
+      <c r="I22" s="4">
+        <v>80</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L5: Complete Equivalent Fractions", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>230</v>
@@ -4134,20 +4503,35 @@
       <c r="D23" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L6: Identifying the Least Common Multiple", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="E23" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23" s="4">
+        <v>80</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L5: Finding Equivalent Fractions and Fractions in Simplest Form", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>230</v>
@@ -4155,20 +4539,71 @@
       <c r="D24" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>Activity.new({name:"L6: Identifying the Greatest Common Factor", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored"}).save</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
+      <c r="I24" s="4">
+        <v>80</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L6: Identifying the Least Common Multiple", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="I25" s="4">
+        <v>80</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity.new({name:"L6: Identifying the Greatest Common Factor", description: "TenMarks", instructions: "80%+", teacher_user_id: 1, activity_type: "scored", min_score: 0 ,max_score: 100, benchmark1_score: 60, benchmark2_score: 80 }).save</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4182,6 +4617,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4265,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -4356,657 +4808,6 @@
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>Classroom.new({id: 4, teacher_user_id: 100,name: "4th Period Math", classroom_code: "li-4-math"}).save</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"ClassroomActivityPairing.new({activity_id: "&amp;A2&amp;", classroom_id: "&amp;B2&amp;"}).save"</f>
-        <v>ClassroomActivityPairing.new({activity_id: 1, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C49" si="0">"ClassroomActivityPairing.new({activity_id: "&amp;A3&amp;", classroom_id: "&amp;B3&amp;"}).save"</f>
-        <v>ClassroomActivityPairing.new({activity_id: 2, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <f t="shared" ref="A4:A25" si="1">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 3, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 4, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 5, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 6, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 7, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 8, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 9, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 10, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 11, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 12, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 13, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 14, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 15, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 16, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 17, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 18, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 19, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 20, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 21, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 22, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 23, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 24, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 1, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <f>A26+1</f>
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 2, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <f t="shared" ref="A28:A49" si="2">A27+1</f>
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 3, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 4, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 5, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 6, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 7, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 8, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 9, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 10, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 11, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 12, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 13, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 14, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 15, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 16, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 17, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 18, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 19, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 20, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 21, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 22, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 23, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>ClassroomActivityPairing.new({activity_id: 24, classroom_id: 2}).save</v>
       </c>
     </row>
   </sheetData>
@@ -5022,10 +4823,661 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E141"/>
+      <selection activeCell="C2" sqref="C2:C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"ClassroomActivityPairing.new({activity_id: "&amp;A2&amp;", classroom_id: "&amp;B2&amp;"}).save"</f>
+        <v>ClassroomActivityPairing.new({activity_id: 1, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C49" si="0">"ClassroomActivityPairing.new({activity_id: "&amp;A3&amp;", classroom_id: "&amp;B3&amp;"}).save"</f>
+        <v>ClassroomActivityPairing.new({activity_id: 2, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" ref="A4:A25" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 3, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 4, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 5, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 6, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 7, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 8, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 9, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 10, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 11, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 12, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 13, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 14, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 15, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 16, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 17, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 18, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 19, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 20, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 21, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 22, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 23, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 24, classroom_id: 1}).save</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 1, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f>A26+1</f>
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 2, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" ref="A28:A49" si="2">A27+1</f>
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 3, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 4, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 5, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 6, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 7, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 8, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 9, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 10, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 11, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 12, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 13, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 14, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 15, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 16, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 17, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 18, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 19, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 20, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 21, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 22, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 23, classroom_id: 2}).save</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>ClassroomActivityPairing.new({activity_id: 24, classroom_id: 2}).save</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5045,12 +5497,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <f ca="1">CEILING(RAND()*99,1)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <f ca="1">CEILING(RAND()*3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>82</v>
@@ -5059,18 +5509,17 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f>"ClassroomsStudentUsers.new({student_user_id: "&amp;C2&amp;", classroom_id: "&amp;D2&amp;"}).save"</f>
-        <v>ClassroomsStudentUsers.new({student_user_id: 82, classroom_id: 1}).save</v>
+        <f>"ClassroomsStudentUsers.new({student_user_id: "&amp;A2&amp;", classroom_id: "&amp;B2&amp;"}).save"</f>
+        <v>ClassroomsStudentUsers.new({student_user_id: 0, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <f t="shared" ref="A3:A66" ca="1" si="0">CEILING(RAND()*99,1)</f>
-        <v>55</v>
+        <f>A2+1</f>
+        <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" ca="1" si="1">CEILING(RAND()*3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>87</v>
@@ -5079,18 +5528,17 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="2">"ClassroomsStudentUsers.new({student_user_id: "&amp;C3&amp;", classroom_id: "&amp;D3&amp;"}).save"</f>
-        <v>ClassroomsStudentUsers.new({student_user_id: 87, classroom_id: 2}).save</v>
+        <f t="shared" ref="E3:E66" si="0">"ClassroomsStudentUsers.new({student_user_id: "&amp;A3&amp;", classroom_id: "&amp;B3&amp;"}).save"</f>
+        <v>ClassroomsStudentUsers.new({student_user_id: 1, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>93</v>
@@ -5099,17 +5547,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 93, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 2, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C5">
@@ -5119,17 +5566,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 95, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 3, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C6">
@@ -5139,18 +5585,17 @@
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 4, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -5159,17 +5604,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 5, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C8">
@@ -5179,18 +5623,17 @@
         <v>2</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 37, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 6, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>61</v>
@@ -5199,18 +5642,17 @@
         <v>3</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 61, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 7, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>98</v>
@@ -5219,17 +5661,16 @@
         <v>3</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 98, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 8, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C11">
@@ -5239,18 +5680,17 @@
         <v>3</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 43, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 9, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>51</v>
@@ -5259,18 +5699,17 @@
         <v>2</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 51, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 10, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>49</v>
@@ -5279,18 +5718,17 @@
         <v>3</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 11, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>59</v>
@@ -5299,18 +5737,17 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 59, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 12, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -5319,17 +5756,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 17, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 13, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C16">
@@ -5339,18 +5775,17 @@
         <v>1</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 86, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 14, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>65</v>
@@ -5359,18 +5794,17 @@
         <v>2</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 65, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 15, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>54</v>
@@ -5379,17 +5813,16 @@
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 54, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 16, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C19">
@@ -5399,17 +5832,16 @@
         <v>3</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 11, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 17, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="C20">
@@ -5419,18 +5851,17 @@
         <v>3</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 76, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 18, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -5439,18 +5870,17 @@
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 18, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>34</v>
@@ -5459,18 +5889,17 @@
         <v>3</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 34, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 20, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>40</v>
@@ -5479,18 +5908,17 @@
         <v>1</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 40, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>66</v>
@@ -5499,18 +5927,17 @@
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 22, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>49</v>
@@ -5519,18 +5946,17 @@
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 23, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>65</v>
@@ -5539,18 +5965,17 @@
         <v>1</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 65, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 24, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>43</v>
@@ -5559,18 +5984,17 @@
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 43, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 25, classroom_id: 1}).save</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>56</v>
@@ -5579,17 +6003,16 @@
         <v>3</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 56, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 26, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="C29">
@@ -5599,18 +6022,17 @@
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 15, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 27, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>81</v>
@@ -5619,18 +6041,17 @@
         <v>1</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 81, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 28, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>99</v>
@@ -5639,18 +6060,17 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 99, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 29, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>66</v>
@@ -5659,18 +6079,17 @@
         <v>3</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 30, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>28</v>
@@ -5679,18 +6098,17 @@
         <v>3</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 28, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 31, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>92</v>
@@ -5699,18 +6117,17 @@
         <v>3</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 92, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5719,18 +6136,17 @@
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 6, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 33, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>89</v>
@@ -5739,17 +6155,16 @@
         <v>2</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 89, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 34, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="C37">
@@ -5759,18 +6174,17 @@
         <v>1</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 59, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 35, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>22</v>
@@ -5779,17 +6193,16 @@
         <v>1</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 22, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 36, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="C39">
@@ -5799,18 +6212,17 @@
         <v>1</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 68, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 37, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>57</v>
@@ -5819,18 +6231,17 @@
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 57, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 38, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>86</v>
@@ -5839,18 +6250,17 @@
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 86, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 39, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -5859,18 +6269,17 @@
         <v>3</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 9, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 40, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -5879,18 +6288,17 @@
         <v>2</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 2, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 41, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>89</v>
@@ -5899,18 +6307,17 @@
         <v>1</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 89, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 42, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>19</v>
@@ -5919,18 +6326,17 @@
         <v>2</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 43, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>60</v>
@@ -5939,18 +6345,17 @@
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 60, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 44, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>32</v>
@@ -5959,18 +6364,17 @@
         <v>1</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 45, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -5979,17 +6383,16 @@
         <v>3</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 46, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="C49">
@@ -5999,18 +6402,17 @@
         <v>1</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 91, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 47, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>18</v>
@@ -6019,18 +6421,17 @@
         <v>1</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 18, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 48, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>77</v>
@@ -6039,18 +6440,17 @@
         <v>1</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 77, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>39</v>
@@ -6059,18 +6459,17 @@
         <v>3</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 39, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 50, classroom_id: 2}).save</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>84</v>
@@ -6079,17 +6478,16 @@
         <v>3</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 84, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 51, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="C54">
@@ -6099,18 +6497,17 @@
         <v>2</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 69, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 52, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>60</v>
@@ -6119,17 +6516,16 @@
         <v>3</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 60, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 53, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="B56">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="C56">
@@ -6139,18 +6535,17 @@
         <v>1</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 72, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 54, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="B57">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -6159,18 +6554,17 @@
         <v>1</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 8, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 55, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="B58">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>77</v>
@@ -6179,18 +6573,17 @@
         <v>1</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 77, classroom_id: 1}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 56, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="B59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>32</v>
@@ -6199,17 +6592,16 @@
         <v>2</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 57, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="C60">
@@ -6219,18 +6611,17 @@
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 25, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 58, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="B61">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>51</v>
@@ -6239,18 +6630,17 @@
         <v>3</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 51, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 59, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="B62">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>19</v>
@@ -6259,18 +6649,17 @@
         <v>2</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 60, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="B63">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>35</v>
@@ -6279,17 +6668,16 @@
         <v>2</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 35, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 61, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="B64">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="C64">
@@ -6299,18 +6687,17 @@
         <v>2</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 62, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="B65">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>36</v>
@@ -6319,17 +6706,16 @@
         <v>2</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 36, classroom_id: 2}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 63, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="B66">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="C66">
@@ -6339,18 +6725,17 @@
         <v>3</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="2"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 48, classroom_id: 3}).save</v>
+        <f t="shared" si="0"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 64, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <f t="shared" ref="A67:A130" ca="1" si="3">CEILING(RAND()*99,1)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" ca="1" si="4">CEILING(RAND()*3,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>85</v>
@@ -6359,18 +6744,17 @@
         <v>2</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="5">"ClassroomsStudentUsers.new({student_user_id: "&amp;C67&amp;", classroom_id: "&amp;D67&amp;"}).save"</f>
-        <v>ClassroomsStudentUsers.new({student_user_id: 85, classroom_id: 2}).save</v>
+        <f t="shared" ref="E67:E101" si="2">"ClassroomsStudentUsers.new({student_user_id: "&amp;A67&amp;", classroom_id: "&amp;B67&amp;"}).save"</f>
+        <v>ClassroomsStudentUsers.new({student_user_id: 65, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <f t="shared" ref="A68:A101" si="3">A67+1</f>
+        <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>52</v>
@@ -6379,17 +6763,16 @@
         <v>1</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 52, classroom_id: 1}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="C69">
@@ -6399,18 +6782,17 @@
         <v>2</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 67, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>19</v>
@@ -6419,17 +6801,16 @@
         <v>2</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 68, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>69</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="C71">
@@ -6439,18 +6820,17 @@
         <v>3</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 60, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 69, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>95</v>
@@ -6459,17 +6839,16 @@
         <v>1</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 95, classroom_id: 1}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 70, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="C73">
@@ -6479,17 +6858,16 @@
         <v>3</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 86, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 71, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="C74">
@@ -6499,18 +6877,17 @@
         <v>3</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 46, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 72, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -6519,18 +6896,17 @@
         <v>2</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 74, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 73, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>71</v>
@@ -6539,18 +6915,17 @@
         <v>2</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 71, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 74, classroom_id: 3}).save</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>46</v>
@@ -6559,18 +6934,17 @@
         <v>1</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 46, classroom_id: 1}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 75, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -6579,18 +6953,17 @@
         <v>3</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 6, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 76, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>10</v>
@@ -6599,18 +6972,17 @@
         <v>3</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 10, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 77, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>63</v>
@@ -6619,18 +6991,17 @@
         <v>1</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 63, classroom_id: 1}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 78, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>81</v>
@@ -6639,18 +7010,17 @@
         <v>3</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 81, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 79, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="B82">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>69</v>
@@ -6659,18 +7029,17 @@
         <v>3</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 69, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 80, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
       <c r="B83">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>80</v>
@@ -6679,18 +7048,17 @@
         <v>3</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 80, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 81, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>82</v>
       </c>
       <c r="B84">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>45</v>
@@ -6699,18 +7067,17 @@
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 45, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 82, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>83</v>
       </c>
       <c r="B85">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -6719,18 +7086,17 @@
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 3, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 83, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="B86">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>39</v>
@@ -6739,18 +7105,17 @@
         <v>3</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 39, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 84, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
       <c r="B87">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>33</v>
@@ -6759,18 +7124,17 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 33, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 85, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>86</v>
       </c>
       <c r="B88">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -6779,18 +7143,17 @@
         <v>3</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 3, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 86, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>87</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89">
         <v>21</v>
@@ -6799,18 +7162,17 @@
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 87, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>88</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>98</v>
@@ -6819,18 +7181,17 @@
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 98, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 88, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>89</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>16</v>
@@ -6839,18 +7200,17 @@
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 16, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 89, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>79</v>
@@ -6859,18 +7219,17 @@
         <v>1</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 79, classroom_id: 1}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 90, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>91</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>10</v>
@@ -6879,18 +7238,17 @@
         <v>2</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 10, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 91, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>92</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>45</v>
@@ -6899,18 +7257,17 @@
         <v>3</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 45, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 92, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>36</v>
@@ -6919,18 +7276,17 @@
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 36, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 93, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>54</v>
@@ -6939,18 +7295,17 @@
         <v>3</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 54, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 94, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>49</v>
@@ -6959,18 +7314,17 @@
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 95, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>94</v>
@@ -6979,18 +7333,17 @@
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 94, classroom_id: 2}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 96, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>62</v>
@@ -6999,18 +7352,17 @@
         <v>1</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 62, classroom_id: 1}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 97, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>32</v>
@@ -7019,18 +7371,17 @@
         <v>3</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 32, classroom_id: 3}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 98, classroom_id: 4}).save</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>73</v>
@@ -7039,808 +7390,8 @@
         <v>3</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 73, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B102">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C102">
-        <v>87</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 87, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B103">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <v>58</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 58, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="B104">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C104">
-        <v>19</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C105">
-        <v>6</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 6, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="B106">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>64</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 64, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B107">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C107">
-        <v>53</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 53, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B108">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>19</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
-        <f t="shared" ca="1" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="B109">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <v>93</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 93, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B110">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>35</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 35, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B111">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 8, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B112">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C112">
-        <v>72</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 72, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="B113">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <v>25</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 25, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C114">
-        <v>94</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 94, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B115">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C115">
-        <v>22</v>
-      </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 22, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="B116">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C116">
-        <v>52</v>
-      </c>
-      <c r="D116">
-        <v>3</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 52, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="B117">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>68</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 68, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B118">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>82</v>
-      </c>
-      <c r="D118">
-        <v>3</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 82, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B119">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>57</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 57, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B120">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <v>75</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 75, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B121">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C121">
-        <v>53</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 53, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="B122">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C122">
-        <v>11</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 11, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="B123">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C123">
-        <v>94</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 94, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B124">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C124">
-        <v>51</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 51, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="B125">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C125">
-        <v>78</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 78, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B126">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>78</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 78, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B127">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C127">
-        <v>38</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 38, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B128">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C128">
-        <v>47</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 47, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B129">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C129">
-        <v>40</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 40, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B130">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C130">
-        <v>67</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" si="5"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 67, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131">
-        <f t="shared" ref="A131:A141" ca="1" si="6">CEILING(RAND()*99,1)</f>
-        <v>75</v>
-      </c>
-      <c r="B131">
-        <f t="shared" ref="B131:B141" ca="1" si="7">CEILING(RAND()*3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="C131">
-        <v>19</v>
-      </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E141" si="8">"ClassroomsStudentUsers.new({student_user_id: "&amp;C131&amp;", classroom_id: "&amp;D131&amp;"}).save"</f>
-        <v>ClassroomsStudentUsers.new({student_user_id: 19, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132">
-        <f t="shared" ca="1" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="B132">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="C132">
-        <v>15</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 15, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B133">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="C133">
-        <v>17</v>
-      </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 17, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
-        <f t="shared" ca="1" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="B134">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="C134">
-        <v>21</v>
-      </c>
-      <c r="D134">
-        <v>3</v>
-      </c>
-      <c r="E134" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 21, classroom_id: 3}).save</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
-        <f t="shared" ca="1" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="B135">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>83</v>
-      </c>
-      <c r="D135">
-        <v>2</v>
-      </c>
-      <c r="E135" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 83, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
-        <f t="shared" ca="1" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="B136">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>24</v>
-      </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 24, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137">
-        <f t="shared" ca="1" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="B137">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="C137">
-        <v>85</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 85, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
-        <f t="shared" ca="1" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="B138">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>66</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="B139">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>66</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 66, classroom_id: 2}).save</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140">
-        <f t="shared" ca="1" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="B140">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="C140">
-        <v>49</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 49, classroom_id: 1}).save</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141">
-        <f t="shared" ca="1" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="B141">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="C141">
-        <v>97</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141" t="str">
-        <f t="shared" si="8"/>
-        <v>ClassroomsStudentUsers.new({student_user_id: 97, classroom_id: 1}).save</v>
+        <f t="shared" si="2"/>
+        <v>ClassroomsStudentUsers.new({student_user_id: 99, classroom_id: 4}).save</v>
       </c>
     </row>
   </sheetData>
